--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5463E0-DEB6-4F75-8C96-2ED6EB6AA9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A231528E-2D97-4453-A916-DA47DE87A70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="7" r:id="rId2"/>
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="82">
   <si>
     <t>Color Codes</t>
   </si>
@@ -255,6 +256,24 @@
   </si>
   <si>
     <t>expectedDefaultBatterySize</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2668</t>
+  </si>
+  <si>
+    <t>P405DCH</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>9.83</t>
+  </si>
+  <si>
+    <t>MZX254CH</t>
   </si>
 </sst>
 </file>
@@ -720,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1483,6 +1502,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1490,7 +1510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB20FA6B-69A3-41AC-9309-E2190CB825E7}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -1867,5 +1887,393 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA09320-AF4D-47E0-B111-CA435C5AE6BC}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.314</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A231528E-2D97-4453-A916-DA47DE87A70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8642CBA-1AAF-4DEB-9D76-BBEB14FAE494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="7" r:id="rId2"/>
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
     <sheet name="Swiss" sheetId="9" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="83">
   <si>
     <t>Color Codes</t>
   </si>
@@ -274,6 +275,9 @@
   </si>
   <si>
     <t>MZX254CH</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2497</t>
   </si>
 </sst>
 </file>
@@ -739,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7:W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1895,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA09320-AF4D-47E0-B111-CA435C5AE6BC}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -2276,4 +2280,394 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2BF638-723C-4868-B63E-189734ED0CCD}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7:W10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="8" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="13" max="13" width="22.21875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.44140625" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="22" max="22" width="17.44140625" customWidth="1"/>
+    <col min="23" max="23" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.314</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8642CBA-1AAF-4DEB-9D76-BBEB14FAE494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7D47E4-0C81-49D4-ABB9-4F3A64427718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
     <sheet name="Swiss" sheetId="9" r:id="rId4"/>
     <sheet name="Portugal" sheetId="10" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="84">
   <si>
     <t>Color Codes</t>
   </si>
@@ -278,6 +279,9 @@
   </si>
   <si>
     <t>NGC-3479/T2497</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3240</t>
   </si>
 </sst>
 </file>
@@ -2286,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2BF638-723C-4868-B63E-189734ED0CCD}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:W10"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2670,4 +2674,323 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2A63DD-4AD9-417A-85FB-1086661F5D31}">
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="8" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="13" max="13" width="22.21875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.44140625" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="22" max="22" width="17.44140625" customWidth="1"/>
+    <col min="23" max="23" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7D47E4-0C81-49D4-ABB9-4F3A64427718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4A49EF-094C-4785-A50B-913408F2F4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="9" r:id="rId4"/>
     <sheet name="Portugal" sheetId="10" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
+    <sheet name="Italy" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="85">
   <si>
     <t>Color Codes</t>
   </si>
@@ -282,6 +283,9 @@
   </si>
   <si>
     <t>NGC-2930/T3240</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2255</t>
   </si>
 </sst>
 </file>
@@ -747,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:W10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2680,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2A63DD-4AD9-417A-85FB-1086661F5D31}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2993,4 +2997,389 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A312F1C-7BCB-4CF7-8745-D5EF32716241}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.314</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4A49EF-094C-4785-A50B-913408F2F4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A100CAD-AF64-48B9-83E1-2C23F3652347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="10" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
     <sheet name="Italy" sheetId="12" r:id="rId7"/>
+    <sheet name="Spain" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="86">
   <si>
     <t>Color Codes</t>
   </si>
@@ -286,6 +287,9 @@
   </si>
   <si>
     <t>NGC-3145/T2255</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2073</t>
   </si>
 </sst>
 </file>
@@ -3003,8 +3007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A312F1C-7BCB-4CF7-8745-D5EF32716241}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection sqref="A1:W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3382,4 +3386,376 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9188EC34-AEB2-418E-BA11-A2E46723DB6F}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.314</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A100CAD-AF64-48B9-83E1-2C23F3652347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F69632-3443-49B5-B6C2-8453C089613B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
     <sheet name="Italy" sheetId="12" r:id="rId7"/>
     <sheet name="Spain" sheetId="13" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="87">
   <si>
     <t>Color Codes</t>
   </si>
@@ -290,6 +291,9 @@
   </si>
   <si>
     <t>NGC-3103/T2073</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3329</t>
   </si>
 </sst>
 </file>
@@ -3392,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9188EC34-AEB2-418E-BA11-A2E46723DB6F}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3758,4 +3762,232 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7E16F7-4E35-43A0-AE3C-6A87D06EED36}">
+  <dimension ref="A1:W8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F69632-3443-49B5-B6C2-8453C089613B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D344DB-0915-4897-82DD-C4F978318C6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="12" r:id="rId7"/>
     <sheet name="Spain" sheetId="13" r:id="rId8"/>
     <sheet name="Turkey" sheetId="14" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="97">
   <si>
     <t>Color Codes</t>
   </si>
@@ -294,6 +295,36 @@
   </si>
   <si>
     <t>NGC-3191/T3329</t>
+  </si>
+  <si>
+    <t>Pro32xD</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>0.498</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.564</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>FIM</t>
+  </si>
+  <si>
+    <t>PFI</t>
   </si>
 </sst>
 </file>
@@ -1141,6 +1172,387 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34306099-7081-4B47-8FE4-8004EF37F515}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="28.77734375" customWidth="1"/>
+    <col min="12" max="12" width="33.5546875" customWidth="1"/>
+    <col min="13" max="13" width="27.109375" customWidth="1"/>
+    <col min="14" max="14" width="25.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="24.77734375" customWidth="1"/>
+    <col min="17" max="17" width="25.5546875" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C32A9C1-1AA5-45B6-87F4-AE64D0970638}">
   <dimension ref="A1:W10"/>
@@ -2302,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2BF638-723C-4868-B63E-189734ED0CCD}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3011,7 +3423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A312F1C-7BCB-4CF7-8745-D5EF32716241}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:W10"/>
     </sheetView>
   </sheetViews>
@@ -3397,7 +3809,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3768,7 +4180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7E16F7-4E35-43A0-AE3C-6A87D06EED36}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D344DB-0915-4897-82DD-C4F978318C6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2CECE4-B70B-4C23-B18E-3F76D965C1BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="13" r:id="rId8"/>
     <sheet name="Turkey" sheetId="14" r:id="rId9"/>
     <sheet name="Croatia" sheetId="15" r:id="rId10"/>
+    <sheet name="Greece" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="99">
   <si>
     <t>Color Codes</t>
   </si>
@@ -325,6 +326,12 @@
   </si>
   <si>
     <t>PFI</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3196</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2073</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34306099-7081-4B47-8FE4-8004EF37F515}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,7 +1244,388 @@
         <v>5</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02251AC-E21C-4988-8E7A-DAF12492004D}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="28.77734375" customWidth="1"/>
+    <col min="12" max="12" width="33.5546875" customWidth="1"/>
+    <col min="13" max="13" width="27.109375" customWidth="1"/>
+    <col min="14" max="14" width="25.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="24.77734375" customWidth="1"/>
+    <col min="17" max="17" width="25.5546875" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>

--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2CECE4-B70B-4C23-B18E-3F76D965C1BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB78C23-A7DF-4197-8237-9AF20ADFD47A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="14" r:id="rId9"/>
     <sheet name="Croatia" sheetId="15" r:id="rId10"/>
     <sheet name="Greece" sheetId="16" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="17" r:id="rId12"/>
+    <sheet name="Denmark" sheetId="18" r:id="rId13"/>
+    <sheet name="Austria" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="106">
   <si>
     <t>Color Codes</t>
   </si>
@@ -332,6 +335,27 @@
   </si>
   <si>
     <t>NGC-3139/T2073</t>
+  </si>
+  <si>
+    <t>3144/T2214</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>MZX254S</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2805</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2362</t>
+  </si>
+  <si>
+    <t>Austria</t>
   </si>
 </sst>
 </file>
@@ -464,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -515,6 +539,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1564,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02251AC-E21C-4988-8E7A-DAF12492004D}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1912,6 +1937,1160 @@
       </c>
       <c r="Q10" s="14" t="s">
         <v>61</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3735CEFB-CBC3-4CD2-AE12-11D40D5AB02A}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.498</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>8.6</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05233E2C-9303-4DA7-AAE8-C8DD27C91682}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.498</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>8.6</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9DC3A1-D92C-4795-8818-D70E01D4C821}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.498</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>8.6</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="R10" s="9" t="s">
         <v>38</v>

--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB78C23-A7DF-4197-8237-9AF20ADFD47A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57900254-30D9-4752-9FE0-DAC3560B0FF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="106">
   <si>
     <t>Color Codes</t>
   </si>
@@ -530,6 +530,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -539,7 +540,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,13 +848,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,13 +1230,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1611,13 +1611,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1971,7 +1971,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1996,13 +1996,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -2036,7 +2036,7 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="7"/>
@@ -2212,7 +2212,9 @@
       <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="E9" s="14" t="s">
         <v>51</v>
       </c>
@@ -2282,7 +2284,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>63</v>
@@ -2356,7 +2358,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2381,13 +2383,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -2420,7 +2422,7 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="7"/>
@@ -2596,7 +2598,9 @@
       <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="E9" s="14" t="s">
         <v>51</v>
       </c>
@@ -2666,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>63</v>
@@ -2740,7 +2744,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2765,13 +2769,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -2805,7 +2809,7 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="7"/>
@@ -2981,7 +2985,9 @@
       <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="E9" s="14" t="s">
         <v>51</v>
       </c>
@@ -3051,7 +3057,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>63</v>
@@ -3150,13 +3156,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3535,13 +3541,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3920,13 +3926,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4312,13 +4318,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4702,13 +4708,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4991,7 +4997,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5016,13 +5022,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -5376,7 +5382,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5388,13 +5394,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -5758,13 +5764,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">

--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57900254-30D9-4752-9FE0-DAC3560B0FF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E260DDCF-EBEF-4741-85F1-F7472999E126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -1970,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3735CEFB-CBC3-4CD2-AE12-11D40D5AB02A}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2743,7 +2743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9DC3A1-D92C-4795-8818-D70E01D4C821}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E260DDCF-EBEF-4741-85F1-F7472999E126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B87A7F-C878-4622-8110-75677DDF2EEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="17" r:id="rId12"/>
     <sheet name="Denmark" sheetId="18" r:id="rId13"/>
     <sheet name="Austria" sheetId="19" r:id="rId14"/>
+    <sheet name="Russia" sheetId="21" r:id="rId15"/>
+    <sheet name="Finland" sheetId="22" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="23" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="109">
   <si>
     <t>Color Codes</t>
   </si>
@@ -356,6 +359,15 @@
   </si>
   <si>
     <t>Austria</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2073</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2961</t>
+  </si>
+  <si>
+    <t>NGC-3104/T3010</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3735CEFB-CBC3-4CD2-AE12-11D40D5AB02A}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3114,6 +3126,936 @@
         <v>46</v>
       </c>
       <c r="W10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B932C9-9C38-40D5-BA01-8B33CE2A3E1B}">
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC08A75-BE1C-4736-AFEC-99257C1802C3}">
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:X9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F1C030-F22D-4E9A-A7FF-59CB1C632EB9}">
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:X9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B87A7F-C878-4622-8110-75677DDF2EEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C5ACBC-73EA-41C3-A6D0-FBD8A5F29B7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="21" r:id="rId15"/>
     <sheet name="Finland" sheetId="22" r:id="rId16"/>
     <sheet name="Hungary" sheetId="23" r:id="rId17"/>
+    <sheet name="Norway" sheetId="26" r:id="rId18"/>
+    <sheet name="Poland" sheetId="27" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="111">
   <si>
     <t>Color Codes</t>
   </si>
@@ -368,6 +370,12 @@
   </si>
   <si>
     <t>NGC-3104/T3010</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3090</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3125</t>
   </si>
 </sst>
 </file>
@@ -3142,7 +3150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B932C9-9C38-40D5-BA01-8B33CE2A3E1B}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -4056,6 +4064,768 @@
         <v>46</v>
       </c>
       <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6408B0AD-BAB1-4735-8D5E-C6DA13BF3682}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="28.77734375" customWidth="1"/>
+    <col min="12" max="12" width="33.5546875" customWidth="1"/>
+    <col min="13" max="13" width="27.109375" customWidth="1"/>
+    <col min="14" max="14" width="25.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="24.77734375" customWidth="1"/>
+    <col min="17" max="17" width="25.5546875" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3185398E-45AD-4ECE-A01B-7E2477F4B9A9}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="28.77734375" customWidth="1"/>
+    <col min="12" max="12" width="33.5546875" customWidth="1"/>
+    <col min="13" max="13" width="27.109375" customWidth="1"/>
+    <col min="14" max="14" width="25.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="24.77734375" customWidth="1"/>
+    <col min="17" max="17" width="25.5546875" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="9" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C5ACBC-73EA-41C3-A6D0-FBD8A5F29B7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683CE5F5-35E6-4ADD-ABA6-A9A2893E5BF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="23" r:id="rId17"/>
     <sheet name="Norway" sheetId="26" r:id="rId18"/>
     <sheet name="Poland" sheetId="27" r:id="rId19"/>
+    <sheet name="UK" sheetId="28" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="115">
   <si>
     <t>Color Codes</t>
   </si>
@@ -376,6 +377,18 @@
   </si>
   <si>
     <t>NGC-2920/T3125</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>1.094</t>
+  </si>
+  <si>
+    <t>MZX253</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3373</t>
   </si>
 </sst>
 </file>
@@ -4461,7 +4474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3185398E-45AD-4ECE-A01B-7E2477F4B9A9}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
@@ -5194,6 +5207,396 @@
       </c>
       <c r="Q10" s="14" t="s">
         <v>61</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D704730C-3106-47F1-BE12-0F1416A4640D}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="8" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="13" max="13" width="22.21875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.44140625" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="22" max="22" width="17.44140625" customWidth="1"/>
+    <col min="23" max="23" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.314</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="R10" s="9" t="s">
         <v>38</v>

--- a/Test Data/Power_Calculation_Default_Values.xlsx
+++ b/Test Data/Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683CE5F5-35E6-4ADD-ABA6-A9A2893E5BF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBE34FC-D58B-41E3-8E87-F26303AF3C31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="120">
   <si>
     <t>Color Codes</t>
   </si>
@@ -389,6 +389,21 @@
   </si>
   <si>
     <t>NGC-2741/T3373</t>
+  </si>
+  <si>
+    <t>MZX251</t>
+  </si>
+  <si>
+    <t>1.082</t>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t>0.363</t>
+  </si>
+  <si>
+    <t>5.46</t>
   </si>
 </sst>
 </file>
@@ -3459,10 +3474,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC08A75-BE1C-4736-AFEC-99257C1802C3}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:X9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3695,7 +3710,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
@@ -3707,7 +3722,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>10</v>
@@ -3719,31 +3734,31 @@
         <v>19</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="14">
-        <v>0.56899999999999995</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>23</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>38</v>
@@ -3761,6 +3776,77 @@
         <v>46</v>
       </c>
       <c r="W9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4093,8 +4179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6408B0AD-BAB1-4735-8D5E-C6DA13BF3682}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5240,7 +5326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D704730C-3106-47F1-BE12-0F1416A4640D}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
